--- a/avia_par_vko.xlsx
+++ b/avia_par_vko.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dimka/Desktop/HSA network design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dimka/Desktop/HSA network design/TNDP_Russia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E3D0F0-32E4-ED47-8DBA-D3258E86259A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3C8A8A-AF81-4C4C-9959-04F40D12D6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14800" yWindow="2180" windowWidth="18800" windowHeight="16140" xr2:uid="{D52A5D99-4B6C-7B4B-8527-A44A9B9ABDAC}"/>
   </bookViews>
   <sheets>
     <sheet name="avia_par_vko" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -429,7 +429,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27CD4F0A-A735-7A4E-846C-C33C55ED281D}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -464,7 +466,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -498,7 +500,7 @@
         <v>6</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -515,7 +517,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>2522</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -531,8 +533,8 @@
       <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="1">
-        <v>4100</v>
+      <c r="E6">
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -549,7 +551,7 @@
         <v>9</v>
       </c>
       <c r="E7">
-        <v>2727</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -566,7 +568,7 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <v>895</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -583,7 +585,7 @@
         <v>11</v>
       </c>
       <c r="E9">
-        <v>3109</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -600,7 +602,7 @@
         <v>4</v>
       </c>
       <c r="E10">
-        <v>3012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -634,7 +636,7 @@
         <v>6</v>
       </c>
       <c r="E12">
-        <v>2270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -651,7 +653,7 @@
         <v>7</v>
       </c>
       <c r="E13">
-        <v>378316</v>
+        <v>8640</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -668,7 +670,7 @@
         <v>8</v>
       </c>
       <c r="E14">
-        <v>615015</v>
+        <v>8640</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -685,7 +687,7 @@
         <v>9</v>
       </c>
       <c r="E15">
-        <v>409069</v>
+        <v>17280</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -702,7 +704,7 @@
         <v>10</v>
       </c>
       <c r="E16">
-        <v>134262</v>
+        <v>8640</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -719,7 +721,7 @@
         <v>11</v>
       </c>
       <c r="E17">
-        <v>466360</v>
+        <v>8640</v>
       </c>
     </row>
     <row r="55" spans="5:5" x14ac:dyDescent="0.2">
